--- a/biology/Médecine/Torture_médicale/Torture_médicale.xlsx
+++ b/biology/Médecine/Torture_médicale/Torture_médicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Torture_m%C3%A9dicale</t>
+          <t>Torture_médicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La torture médicale (aussi appelée l'interrogation médicale) est la contribution, voire la participation, explicite de professionnels médicaux dans des actes de torture, soit pour juger les capacités d'endurance des victimes, soit pour appliquer des traitements qui accentueraient la torture, ou bien en tant que tortionnaires eux-mêmes.
 Le terme peut également faire référence à un style de scénario pornographique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Torture_m%C3%A9dicale</t>
+          <t>Torture_médicale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La torture médicale implique la participation de personnel possédant des connaissances médicales, tels que des médecins ou encore des psychologues, à des actes infligeant de la souffrance, notamment à des fins d'interrogatoire[1]. De telles accusations portèrent sur le traitement des détenus de prisons américaines telles que camp de Guantanamo, ou d'autres prisons secrètes : participation de médecins au gavage forcé[2], négligence ou dissimulation de preuves médicales de mauvais traitements[3], mise en œuvre de techniques d'interrogation renforcées telles que la privation de sommeil prolongée, la privation sensorielle, la nudité forcée et les positions corporelles douloureuses[4],[5].
-Elle peut également avoir une visée punitive, comme dans le châtiment corporel judiciaire. La castration chimique des auteurs de crimes sexuels est parfois considérée comme un acte de torture, notamment lorsqu'elle est forcée[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La torture médicale implique la participation de personnel possédant des connaissances médicales, tels que des médecins ou encore des psychologues, à des actes infligeant de la souffrance, notamment à des fins d'interrogatoire. De telles accusations portèrent sur le traitement des détenus de prisons américaines telles que camp de Guantanamo, ou d'autres prisons secrètes : participation de médecins au gavage forcé, négligence ou dissimulation de preuves médicales de mauvais traitements, mise en œuvre de techniques d'interrogation renforcées telles que la privation de sommeil prolongée, la privation sensorielle, la nudité forcée et les positions corporelles douloureuses,.
+Elle peut également avoir une visée punitive, comme dans le châtiment corporel judiciaire. La castration chimique des auteurs de crimes sexuels est parfois considérée comme un acte de torture, notamment lorsqu'elle est forcée.
 Enfin, elle peut qualifier des actes d'expérimentation humaine ou animale, lorsque celle-ci n'est pas consentie (lorsque les sujets humains ne sont pas en mesure d'exprimer un consentement libre et éclairé) ou pas légitime (lorsque l'expérimentation sur des êtres sentients peut être remplacée par un autre type d'expérimentation, ou encore lorsque le sujet de recherche ne représente pas un enjeu suffisant pour effectuer une recherche sur un sujet vivant). Ce fut le cas des expériences menées sur les humains par l'Unité 731, unité militaire de recherche bactériologique de l'Armée impériale japonaise, ou encore par Josef Mengele, officier allemand de la Schutzstaffel (SS) criminel de guerre qui exerça comme médecin dans le camp d'extermination d'Auschwitz durant la Seconde Guerre mondiale.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Torture_m%C3%A9dicale</t>
+          <t>Torture_médicale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,14 +559,16 @@
           <t>Éthique médicale et scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La torture médicale constitue une violation fondamentale des principes de l'éthique médicale, qu'il s'agisse de soin ou de recherche. Elle va notamment à l'encontre des textes suivants :
 le serment d'Hippocrate et sa version moderne la Déclaration de Genève, sur l'exercice de la médecine,
 les conventions de Genève, interdisant les actes de torture dans un contexte de guerre,
 le code de Nuremberg sur les limites de l'expérimentation médicale humaine,
 la déclaration d'Helsinki concernant l'expérimentation sur la personne humaine,
-les « Principes d'éthique médicale applicables au rôle du personnel de santé, en particulier des médecins, dans la protection des prisonniers et des détenus contre la torture et autres peines ou traitements cruels, inhumains ou dégradants »[7], publiés par l'Organisation des Nations unies. En 2023, parmi les pays non signataires de ce traité, se trouvent la république démocratique populaire de Corée, la république islamique d'Iran, la Malaisie, le Myanmar, Singapour ou encore le Zimbabwe[8].</t>
+les « Principes d'éthique médicale applicables au rôle du personnel de santé, en particulier des médecins, dans la protection des prisonniers et des détenus contre la torture et autres peines ou traitements cruels, inhumains ou dégradants », publiés par l'Organisation des Nations unies. En 2023, parmi les pays non signataires de ce traité, se trouvent la république démocratique populaire de Corée, la république islamique d'Iran, la Malaisie, le Myanmar, Singapour ou encore le Zimbabwe.</t>
         </is>
       </c>
     </row>
